--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111347.5499905286</v>
+        <v>109459.968474127</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>415855.083720857</v>
+        <v>230570.2313062896</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>287.2775663335713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,13 +713,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>29.06432927069935</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>68.08390849687525</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>11.0042946710584</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>104.4851394800121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>31.63855909934253</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>62.34212692452535</v>
       </c>
       <c r="H7" t="n">
-        <v>78.88684406884215</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>12.77609278441097</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>56.49495139346456</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>189.5968436493439</v>
+        <v>104.1099230888609</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273987</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819403</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>24.32337253107383</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>208.0572134066755</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505273946</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>39.89065053167221</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>113.8398955709556</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>154.5936327017012</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>59.77945773664925</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>111.9679966130641</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>36.59669811656337</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>5.893763769138303</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,13 +2533,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>12.68762643336812</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>66.03834299396291</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965526</v>
+        <v>93.41221638965534</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801207</v>
+        <v>91.23070601801216</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437415</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897903</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>42.20569823125436</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>54.76109577523577</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
         <v>166.3443044298322</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>4.994986542893931</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463181</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1207.668958723993</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C2" t="n">
-        <v>838.7064417835813</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D2" t="n">
-        <v>838.7064417835813</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>838.7064417835813</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>1964.188553118798</v>
       </c>
       <c r="W2" t="n">
-        <v>1971.274048960885</v>
+        <v>1611.419897848684</v>
       </c>
       <c r="X2" t="n">
-        <v>1597.808290699805</v>
+        <v>1237.954139587604</v>
       </c>
       <c r="Y2" t="n">
-        <v>1207.668958723993</v>
+        <v>847.8148076117928</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4398,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.0584309830497</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>65.0584309830497</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245972</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X4" t="n">
-        <v>285.8510101265798</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y4" t="n">
-        <v>65.0584309830497</v>
+        <v>272.8312459770186</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>730.9133108563931</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>730.9133108563931</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>730.9133108563931</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>730.9133108563931</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4598,19 +4598,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1507.652482896327</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="Y5" t="n">
-        <v>1117.513150920515</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.9553738610022</v>
+        <v>285.8510101265798</v>
       </c>
       <c r="C7" t="n">
-        <v>438.9553738610022</v>
+        <v>116.9148271986729</v>
       </c>
       <c r="D7" t="n">
-        <v>438.9553738610022</v>
+        <v>116.9148271986729</v>
       </c>
       <c r="E7" t="n">
-        <v>438.9553738610022</v>
+        <v>116.9148271986729</v>
       </c>
       <c r="F7" t="n">
-        <v>438.9553738610022</v>
+        <v>116.9148271986729</v>
       </c>
       <c r="G7" t="n">
-        <v>269.9555735993346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>285.8510101265798</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610022</v>
+        <v>285.8510101265798</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.94664591678</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2684.243946791545</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2684.243946791545</v>
+        <v>2640.083483550076</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.181059447974</v>
+        <v>2309.020596206506</v>
       </c>
       <c r="W8" t="n">
-        <v>2000.41240417786</v>
+        <v>1956.251940936392</v>
       </c>
       <c r="X8" t="n">
-        <v>1626.94664591678</v>
+        <v>1582.786182675312</v>
       </c>
       <c r="Y8" t="n">
-        <v>1626.94664591678</v>
+        <v>1192.6468506995</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4890,34 +4890,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>536.6170209242687</v>
+        <v>474.8207871670215</v>
       </c>
       <c r="T10" t="n">
-        <v>536.6170209242687</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="U10" t="n">
-        <v>536.6170209242687</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="V10" t="n">
-        <v>281.9325327183818</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822454</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,13 +5051,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5121,25 +5121,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>836.4717212750119</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1156.807040804714</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N12" t="n">
-        <v>1501.327696442332</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O12" t="n">
-        <v>2170.791457744991</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P12" t="n">
-        <v>2353.434935358342</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>552.3735683412818</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C13" t="n">
-        <v>383.437385413375</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>233.3207460010392</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>233.3207460010392</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>233.3207460010392</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>233.3207460010392</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150547</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="X13" t="n">
-        <v>954.8146123150547</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.0220331715245</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805454</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822449</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5297,28 +5297,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5343,40 +5343,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>836.4717212750119</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1156.807040804714</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N15" t="n">
-        <v>1501.327696442332</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O15" t="n">
-        <v>2170.791457744991</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>714.6010158349783</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C16" t="n">
-        <v>545.6648329070714</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947356</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,16 +5440,16 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1458.622684162274</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1258.702674077826</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1258.702674077826</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1258.702674077826</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>1004.018185871939</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>714.6010158349783</v>
+        <v>731.0291971045606</v>
       </c>
       <c r="X16" t="n">
-        <v>714.6010158349783</v>
+        <v>616.0394035985448</v>
       </c>
       <c r="Y16" t="n">
-        <v>714.6010158349783</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,16 +5498,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5516,7 +5516,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>270.0269952192064</v>
       </c>
       <c r="L18" t="n">
-        <v>452.5377573864724</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M18" t="n">
-        <v>1220.905903778934</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N18" t="n">
-        <v>2025.317482043085</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O18" t="n">
-        <v>2371.535469249458</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6642370999739</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="W19" t="n">
-        <v>1020.446367141521</v>
+        <v>385.5899330013833</v>
       </c>
       <c r="X19" t="n">
-        <v>792.456816243504</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="Y19" t="n">
-        <v>571.6642370999739</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,73 +5726,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>237.1439506606956</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>648.0342195052083</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>1261.931289262097</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M21" t="n">
-        <v>2030.299435654558</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N21" t="n">
-        <v>2374.820091292176</v>
+        <v>1862.817363967</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2111.570778050962</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1274.742180641885</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="U22" t="n">
-        <v>1038.244483529058</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V22" t="n">
-        <v>783.5599953231706</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W22" t="n">
-        <v>494.14282528621</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X22" t="n">
-        <v>266.1532743881928</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881928</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,49 +5972,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M24" t="n">
-        <v>1954.109744073479</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="N24" t="n">
-        <v>1954.109744073479</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>383.6411625027487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>214.7049795748417</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>214.7049795748417</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>214.7049795748417</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765185</v>
+        <v>874.9271131227928</v>
       </c>
       <c r="V25" t="n">
-        <v>786.0822064765185</v>
+        <v>620.2426249169059</v>
       </c>
       <c r="W25" t="n">
-        <v>786.0822064765185</v>
+        <v>330.8254548799453</v>
       </c>
       <c r="X25" t="n">
-        <v>786.0822064765185</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>565.2896273329884</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6206,22 +6206,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
@@ -6233,16 +6233,16 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6306,22 +6306,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>469.5954827887335</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>699.5585886570826</v>
       </c>
       <c r="M27" t="n">
-        <v>417.5524109899876</v>
+        <v>1019.893908186784</v>
       </c>
       <c r="N27" t="n">
-        <v>1221.963989254138</v>
+        <v>1364.414563824402</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="V28" t="n">
-        <v>943.1622247234138</v>
+        <v>731.3177283550795</v>
       </c>
       <c r="W28" t="n">
-        <v>653.7450546864533</v>
+        <v>441.9005583181188</v>
       </c>
       <c r="X28" t="n">
-        <v>425.7555037884359</v>
+        <v>213.9110074201015</v>
       </c>
       <c r="Y28" t="n">
-        <v>425.7555037884359</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,13 +6452,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6467,25 +6467,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>356.872140352008</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>970.7692101088967</v>
       </c>
       <c r="M30" t="n">
-        <v>1608.660951743751</v>
+        <v>1739.137356501358</v>
       </c>
       <c r="N30" t="n">
-        <v>2374.820091292176</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.874819421525</v>
+        <v>439.5324299542179</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749889</v>
+        <v>326.3571123076817</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440239</v>
+        <v>232.0013381767167</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430016</v>
+        <v>139.8491098756943</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264621</v>
+        <v>139.8491098756943</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>139.8491098756943</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>139.8491098756943</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933506</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6640,31 +6640,31 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1880.811824899271</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1712.787274970148</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1479.419501465077</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1280.495878540561</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1046.839573784971</v>
+        <v>902.6804289818929</v>
       </c>
       <c r="X31" t="n">
-        <v>1041.794132832553</v>
+        <v>730.4517433652462</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703939</v>
+        <v>565.4200295030869</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,37 +6710,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>352.8380350170344</v>
       </c>
       <c r="M33" t="n">
-        <v>334.2881267578673</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103135</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982978</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,46 +6920,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.28419175141</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>493.5013994809974</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,7 +7175,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,7 +7184,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7260,19 +7260,19 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1890.372576454149</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7321,13 +7321,13 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
@@ -7336,10 +7336,10 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7391,31 +7391,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7491,22 +7491,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L42" t="n">
-        <v>711.1141612171745</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="M42" t="n">
-        <v>1128.069692924718</v>
+        <v>542.909971047825</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>1347.321549311976</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2016.785310614635</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2537.085932350382</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7652,7 +7652,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7728,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M45" t="n">
-        <v>334.288126757867</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>355.3613753298455</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9027,7 +9027,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>144.3956830213874</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9975,7 +9975,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>270.1335550312996</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,7 +10908,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10917,13 +10917,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11397,7 +11397,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>124.5904558364623</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>78.18013899190183</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>70.07370187212059</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>111.8697598180816</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>12.65318839692668</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>158.8051956154455</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>85.95281337053913</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>249.640654282014</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>139.5272842537929</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>213.022028955669</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,16 +24649,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>186.0993003298651</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518773</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437423</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897911</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>13.0102906044606</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>165.5114122175861</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26317,22 +26317,22 @@
         <v>287364.6194524994</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524996</v>
       </c>
       <c r="E2" t="n">
         <v>273720.3418163963</v>
       </c>
       <c r="F2" t="n">
+        <v>273720.3418163962</v>
+      </c>
+      <c r="G2" t="n">
+        <v>273720.3418163962</v>
+      </c>
+      <c r="H2" t="n">
+        <v>273720.3418163962</v>
+      </c>
+      <c r="I2" t="n">
         <v>273720.3418163963</v>
-      </c>
-      <c r="G2" t="n">
-        <v>273720.3418163964</v>
-      </c>
-      <c r="H2" t="n">
-        <v>273720.3418163963</v>
-      </c>
-      <c r="I2" t="n">
-        <v>273720.3418163962</v>
       </c>
       <c r="J2" t="n">
         <v>273720.3418163962</v>
@@ -26341,19 +26341,19 @@
         <v>284775.4961416892</v>
       </c>
       <c r="L2" t="n">
-        <v>287364.6194524987</v>
+        <v>287364.6194524988</v>
       </c>
       <c r="M2" t="n">
+        <v>287364.6194524993</v>
+      </c>
+      <c r="N2" t="n">
         <v>287364.6194524988</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>287364.6194524992</v>
+      </c>
+      <c r="P2" t="n">
         <v>287364.6194524993</v>
-      </c>
-      <c r="O2" t="n">
-        <v>287364.6194524989</v>
-      </c>
-      <c r="P2" t="n">
-        <v>287364.6194524989</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284561</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086693</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.6053028456</v>
       </c>
     </row>
     <row r="4">
@@ -26421,25 +26421,25 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759288</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
+        <v>787.7936905758822</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758824</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758629</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905759211</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758824</v>
       </c>
       <c r="K4" t="n">
         <v>18952.41620477241</v>
@@ -26448,16 +26448,16 @@
         <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189627</v>
       </c>
       <c r="N4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="O4" t="n">
         <v>23206.58093189636</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>23206.58093189634</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26476,31 +26476,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-524521.4770060736</v>
       </c>
       <c r="C6" t="n">
-        <v>65446.40220847083</v>
+        <v>65446.40220847091</v>
       </c>
       <c r="D6" t="n">
-        <v>65446.4022084708</v>
+        <v>65446.40220847106</v>
       </c>
       <c r="E6" t="n">
-        <v>-344214.8142997923</v>
+        <v>-344312.2734257646</v>
       </c>
       <c r="F6" t="n">
-        <v>180945.2221771038</v>
+        <v>180847.7630511315</v>
       </c>
       <c r="G6" t="n">
-        <v>180945.2221771039</v>
+        <v>180847.7630511315</v>
       </c>
       <c r="H6" t="n">
-        <v>180945.2221771037</v>
+        <v>180847.7630511316</v>
       </c>
       <c r="I6" t="n">
-        <v>180945.2221771035</v>
+        <v>180847.7630511315</v>
       </c>
       <c r="J6" t="n">
-        <v>4522.002984510764</v>
+        <v>4424.543858538599</v>
       </c>
       <c r="K6" t="n">
-        <v>125032.2661038483</v>
+        <v>125013.7723659141</v>
       </c>
       <c r="L6" t="n">
-        <v>156100.02589971</v>
+        <v>156100.0258997101</v>
       </c>
       <c r="M6" t="n">
-        <v>31641.91746673989</v>
+        <v>31641.9174667403</v>
       </c>
       <c r="N6" t="n">
-        <v>166442.9327005776</v>
+        <v>166442.9327005771</v>
       </c>
       <c r="O6" t="n">
-        <v>166442.9327005772</v>
+        <v>166442.9327005775</v>
       </c>
       <c r="P6" t="n">
-        <v>122280.3273977315</v>
+        <v>122280.3273977319</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26756,19 +26756,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26820,7 +26820,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108357</v>
+        <v>12.92863350108367</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.203256628557</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>119.5984794081402</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>298.6879291994355</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>111.748071685062</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>137.611178347154</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>302.3909062616993</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>338.0925415791265</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>104.9676753345256</v>
       </c>
       <c r="H7" t="n">
-        <v>77.284044772953</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>203.6722275732468</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>194.7292161148247</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>22.54869530067504</v>
+        <v>108.035615861158</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.032208304403592e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423951</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31841,7 +31841,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
@@ -31853,22 +31853,22 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>328.5774119587763</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>202.7717287923908</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,22 +32078,22 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>202.771728792391</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32312,28 +32312,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>98.44906376001131</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32549,28 +32549,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>142.0868531448536</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>23.85840434223323</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130947006</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,19 +32786,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>348.9381740704318</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>424.9717497874964</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32807,16 +32807,16 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33026,7 +33026,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>249.5159911824346</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -33035,25 +33035,25 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>340.8546090773502</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,19 +33260,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>135.6540291251362</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>425.8974584957643</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33284,13 +33284,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,25 +33409,25 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33506,28 +33506,28 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,25 +33646,25 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041505</v>
       </c>
       <c r="L35" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,16 +33673,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,19 +33734,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>270.8978656474351</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33755,16 +33755,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33898,7 +33898,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565519</v>
@@ -33980,19 +33980,19 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>392.6063366508803</v>
+        <v>334.3518874020928</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34214,13 +34214,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>97.59617391701153</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34229,7 +34229,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>6.528285267804506</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34372,7 +34372,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565519</v>
@@ -34390,7 +34390,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
         <v>76.0697047810465</v>
@@ -34448,7 +34448,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -34457,10 +34457,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>147.3268674777244</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
@@ -35501,16 +35501,16 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>579.8434867910614</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>272.8672424422184</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>224.0196632465122</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>387.2600900179979</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>6.554244047028436</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>349.7151385922964</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>141.3402618185958</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>208.3467655678402</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36373,13 +36373,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>672.5092038984134</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>772.9724120477166</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>376.1397892206542</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>592.1206839096353</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>262.2778271633558</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>773.8981207559846</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412262</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37005,10 +37005,10 @@
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043185</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>131.5791752514254</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303347</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>594.4688954754167</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37546,7 +37546,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221117</v>
@@ -37628,22 +37628,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>740.6069989111005</v>
+        <v>682.352549662313</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>421.1672037449931</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
         <v>676.2260215178377</v>
@@ -37877,7 +37877,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>76.62379891763209</v>
       </c>
       <c r="R42" t="n">
         <v>10.73738595686865</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38020,7 +38020,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221117</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,19 +38096,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>495.3275297379446</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38117,7 +38117,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
